--- a/assets/excel/2021_6-3-1.xlsx
+++ b/assets/excel/2021_6-3-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66650700-BF88-4825-B53D-5F97A4EDC0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D95AA6-E4B4-4878-B755-421B6F759B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{1DC1FA1A-6A49-4A98-8ADD-5DF604C4DD39}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="149">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -111,21 +111,12 @@
     <t>Frauen</t>
   </si>
   <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>45,3</t>
-  </si>
-  <si>
     <t>0,7</t>
   </si>
   <si>
     <t>21,7</t>
   </si>
   <si>
-    <t>25,9</t>
-  </si>
-  <si>
     <t>0,9</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>0,4</t>
   </si>
   <si>
-    <t>51,6</t>
-  </si>
-  <si>
     <t>0,8</t>
   </si>
   <si>
@@ -162,60 +150,27 @@
     <t>(0,0)</t>
   </si>
   <si>
-    <t>48,2</t>
-  </si>
-  <si>
     <t>(1,1)</t>
   </si>
   <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>29,1</t>
-  </si>
-  <si>
     <t>(0,4)</t>
   </si>
   <si>
     <t>2,4</t>
   </si>
   <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>50,8</t>
-  </si>
-  <si>
     <t>21,1</t>
   </si>
   <si>
-    <t>20,7</t>
-  </si>
-  <si>
     <t>3,3</t>
   </si>
   <si>
-    <t>41,5</t>
-  </si>
-  <si>
-    <t>25,7</t>
-  </si>
-  <si>
-    <t>27,7</t>
-  </si>
-  <si>
     <t>1,8</t>
   </si>
   <si>
-    <t>34,0</t>
-  </si>
-  <si>
     <t>(0,7)</t>
   </si>
   <si>
@@ -240,9 +195,6 @@
     <t>(0,8)</t>
   </si>
   <si>
-    <t>39,9</t>
-  </si>
-  <si>
     <t>22,3</t>
   </si>
   <si>
@@ -255,9 +207,6 @@
     <t>2,7</t>
   </si>
   <si>
-    <t>44,7</t>
-  </si>
-  <si>
     <t>21,3</t>
   </si>
   <si>
@@ -267,9 +216,6 @@
     <t>1,1</t>
   </si>
   <si>
-    <t>51,8</t>
-  </si>
-  <si>
     <t>24,0</t>
   </si>
   <si>
@@ -297,9 +243,6 @@
     <t>4,4</t>
   </si>
   <si>
-    <t>50,4</t>
-  </si>
-  <si>
     <t>20,8</t>
   </si>
   <si>
@@ -309,18 +252,12 @@
     <t>1,9</t>
   </si>
   <si>
-    <t>41,0</t>
-  </si>
-  <si>
     <t>28,4</t>
   </si>
   <si>
     <t>1,4</t>
   </si>
   <si>
-    <t>31,6</t>
-  </si>
-  <si>
     <t>10,1</t>
   </si>
   <si>
@@ -333,9 +270,6 @@
     <t>(0,6)</t>
   </si>
   <si>
-    <t>39,1</t>
-  </si>
-  <si>
     <t>21,9</t>
   </si>
   <si>
@@ -354,18 +288,12 @@
     <t>0,3</t>
   </si>
   <si>
-    <t>51,2</t>
-  </si>
-  <si>
     <t>24,2</t>
   </si>
   <si>
     <t>18,6</t>
   </si>
   <si>
-    <t>44,4</t>
-  </si>
-  <si>
     <t>(1,0)</t>
   </si>
   <si>
@@ -384,12 +312,6 @@
     <t>3,9</t>
   </si>
   <si>
-    <t>49,7</t>
-  </si>
-  <si>
-    <t>39,2</t>
-  </si>
-  <si>
     <t>25,6</t>
   </si>
   <si>
@@ -408,9 +330,6 @@
     <t>5,2</t>
   </si>
   <si>
-    <t>37,8</t>
-  </si>
-  <si>
     <t>22,8</t>
   </si>
   <si>
@@ -420,9 +339,6 @@
     <t>2,5</t>
   </si>
   <si>
-    <t>76,1</t>
-  </si>
-  <si>
     <t>10,7</t>
   </si>
   <si>
@@ -432,9 +348,6 @@
     <t>4,2</t>
   </si>
   <si>
-    <t>42,8</t>
-  </si>
-  <si>
     <t>22,0</t>
   </si>
   <si>
@@ -444,54 +357,36 @@
     <t>3,1</t>
   </si>
   <si>
-    <t>50,1</t>
-  </si>
-  <si>
     <t>24,3</t>
   </si>
   <si>
     <t>19,3</t>
   </si>
   <si>
-    <t>45,7</t>
-  </si>
-  <si>
     <t>10,5</t>
   </si>
   <si>
     <t>32,5</t>
   </si>
   <si>
-    <t>49,3</t>
-  </si>
-  <si>
     <t>21,8</t>
   </si>
   <si>
     <t>3,4</t>
   </si>
   <si>
-    <t>37,7</t>
-  </si>
-  <si>
     <t>24,6</t>
   </si>
   <si>
     <t>31,8</t>
   </si>
   <si>
-    <t>30,8</t>
-  </si>
-  <si>
     <t>48,1</t>
   </si>
   <si>
     <t>5,9</t>
   </si>
   <si>
-    <t>36,5</t>
-  </si>
-  <si>
     <t>22,1</t>
   </si>
   <si>
@@ -501,30 +396,18 @@
     <t>2,9</t>
   </si>
   <si>
-    <t>42,5</t>
-  </si>
-  <si>
     <t>28,8</t>
   </si>
   <si>
-    <t>49,9</t>
-  </si>
-  <si>
     <t>19,6</t>
   </si>
   <si>
-    <t>46,5</t>
-  </si>
-  <si>
     <t>1,6</t>
   </si>
   <si>
     <t>3,5</t>
   </si>
   <si>
-    <t>36,9</t>
-  </si>
-  <si>
     <t>24,9</t>
   </si>
   <si>
@@ -540,69 +423,42 @@
     <t>2,0</t>
   </si>
   <si>
-    <t>36,0</t>
-  </si>
-  <si>
     <t>22,2</t>
   </si>
   <si>
     <t>35,5</t>
   </si>
   <si>
-    <t>42,1</t>
-  </si>
-  <si>
     <t>29,0</t>
   </si>
   <si>
     <t>19,7</t>
   </si>
   <si>
-    <t>45,2</t>
-  </si>
-  <si>
     <t>(1,2)</t>
   </si>
   <si>
     <t>21,6</t>
   </si>
   <si>
-    <t>36,2</t>
-  </si>
-  <si>
     <t>33,2</t>
   </si>
   <si>
-    <t>29,9</t>
-  </si>
-  <si>
     <t>10,0</t>
   </si>
   <si>
     <t>48,8</t>
   </si>
   <si>
-    <t>35,2</t>
-  </si>
-  <si>
     <t>35,8</t>
   </si>
   <si>
-    <t>42,0</t>
-  </si>
-  <si>
     <t>28,5</t>
   </si>
   <si>
-    <t>50,0</t>
-  </si>
-  <si>
     <t>23,8</t>
   </si>
   <si>
-    <t>43,9</t>
-  </si>
-  <si>
     <t>(1,3)</t>
   </si>
   <si>
@@ -610,39 +466,6 @@
   </si>
   <si>
     <t>8,4</t>
-  </si>
-  <si>
-    <t>49,0</t>
-  </si>
-  <si>
-    <t>21,5</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>32,6</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>46,6</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t>35,3</t>
-  </si>
-  <si>
-    <t>22,6</t>
-  </si>
-  <si>
-    <t>34,9</t>
   </si>
   <si>
     <t>1) Seit dem Jahr 2018 wird im Mikrozensus der Migrationshintergrund im weiteren Sinne jährlich berichtet. Die in der Tabelle ab dem Jahr 2018 abgebildeten Daten zum Migrationshintergrund entsprechen dem Migrationshintergrund im weiteren Sinne, bis 2017 wird der Migrationshintergrund im engeren Sinne abgebildet. Die Vergleichbarkeit ist dadurch eingeschränkt.</t>
@@ -866,7 +689,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,6 +782,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,8 +1114,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1146,7 @@
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -1695,35 +1530,35 @@
       <c r="D16" s="5">
         <v>2018</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>29</v>
+      <c r="E16" s="40">
+        <v>100</v>
+      </c>
+      <c r="F16" s="40">
+        <v>45.3</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="40">
+        <v>21.7</v>
+      </c>
+      <c r="I16" s="40">
+        <v>25.9</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="40">
+        <v>3</v>
+      </c>
+      <c r="M16" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="N16" s="40">
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1736,35 +1571,35 @@
       <c r="D17" s="15">
         <v>2018</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="16" t="s">
+      <c r="E17" s="41">
+        <v>100</v>
+      </c>
+      <c r="F17" s="41">
+        <v>51.6</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="41">
+        <v>24.8</v>
+      </c>
+      <c r="I17" s="41">
+        <v>18.2</v>
+      </c>
+      <c r="J17" s="41">
+        <v>1</v>
+      </c>
+      <c r="K17" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="M17" s="41">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1777,35 +1612,35 @@
       <c r="D18" s="15">
         <v>2018</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>38</v>
+      <c r="E18" s="41">
+        <v>100</v>
+      </c>
+      <c r="F18" s="41">
+        <v>48.2</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="H18" s="41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I18" s="41">
+        <v>29.1</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="K18" s="41">
+        <v>2.4</v>
+      </c>
+      <c r="L18" s="41">
+        <v>7.4</v>
+      </c>
+      <c r="M18" s="41">
+        <v>2.6</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,35 +1653,35 @@
       <c r="D19" s="18">
         <v>2018</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>28</v>
+      <c r="E19" s="42">
+        <v>100</v>
+      </c>
+      <c r="F19" s="42">
+        <v>50.8</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="42">
+        <v>21.1</v>
+      </c>
+      <c r="I19" s="42">
+        <v>20.7</v>
+      </c>
+      <c r="J19" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="42">
+        <v>1</v>
+      </c>
+      <c r="L19" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="M19" s="42">
+        <v>1.3</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,35 +1694,35 @@
       <c r="D20" s="15">
         <v>2018</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>23</v>
+      <c r="E20" s="41">
+        <v>100</v>
+      </c>
+      <c r="F20" s="41">
+        <v>41.5</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="41">
+        <v>25.7</v>
+      </c>
+      <c r="I20" s="41">
+        <v>27.7</v>
+      </c>
+      <c r="J20" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="M20" s="41">
+        <v>1</v>
+      </c>
+      <c r="N20" s="41">
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,35 +1735,35 @@
       <c r="D21" s="15">
         <v>2018</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>55</v>
+      <c r="E21" s="41">
+        <v>100</v>
+      </c>
+      <c r="F21" s="41">
+        <v>34</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="K21" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L21" s="41">
+        <v>6.3</v>
+      </c>
+      <c r="M21" s="41">
+        <v>2.2000000000000002</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,35 +1776,35 @@
       <c r="D22" s="18">
         <v>2018</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>64</v>
+      <c r="E22" s="42">
+        <v>100</v>
+      </c>
+      <c r="F22" s="42">
+        <v>39.9</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="K22" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="L22" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="M22" s="42">
+        <v>1.3</v>
+      </c>
+      <c r="N22" s="42">
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,35 +1817,35 @@
       <c r="D23" s="18">
         <v>2017</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="42">
+        <v>100</v>
+      </c>
+      <c r="F23" s="42">
+        <v>44.7</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="N23" s="42">
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,35 +1858,35 @@
       <c r="D24" s="15">
         <v>2017</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="41">
+        <v>100</v>
+      </c>
+      <c r="F24" s="41">
+        <v>51.8</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="L24" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,35 +1899,35 @@
       <c r="D25" s="15">
         <v>2017</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>22</v>
+      <c r="E25" s="41">
+        <v>100</v>
+      </c>
+      <c r="F25" s="41">
+        <v>45.3</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,35 +1940,35 @@
       <c r="D26" s="18">
         <v>2017</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>83</v>
+      <c r="E26" s="42">
+        <v>100</v>
+      </c>
+      <c r="F26" s="42">
+        <v>50.4</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,35 +1981,35 @@
       <c r="D27" s="15">
         <v>2017</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="41">
+        <v>100</v>
+      </c>
+      <c r="F27" s="41">
+        <v>41</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="K27" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,35 +2022,35 @@
       <c r="D28" s="15">
         <v>2017</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>90</v>
+      <c r="E28" s="41">
+        <v>100</v>
+      </c>
+      <c r="F28" s="41">
+        <v>31.6</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,35 +2063,35 @@
       <c r="D29" s="18">
         <v>2017</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="42">
+        <v>100</v>
+      </c>
+      <c r="F29" s="42">
+        <v>39.1</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,35 +2104,35 @@
       <c r="D30" s="18">
         <v>2016</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="42">
+        <v>100</v>
+      </c>
+      <c r="F30" s="42">
+        <v>43.7</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="K30" s="19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,35 +2145,35 @@
       <c r="D31" s="15">
         <v>2016</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>102</v>
+      <c r="E31" s="41">
+        <v>100</v>
+      </c>
+      <c r="F31" s="41">
+        <v>51.2</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,35 +2186,35 @@
       <c r="D32" s="15">
         <v>2016</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>105</v>
+      <c r="E32" s="41">
+        <v>100</v>
+      </c>
+      <c r="F32" s="41">
+        <v>44.4</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,35 +2227,35 @@
       <c r="D33" s="18">
         <v>2016</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>112</v>
+      <c r="E33" s="42">
+        <v>100</v>
+      </c>
+      <c r="F33" s="42">
+        <v>49.7</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,35 +2268,35 @@
       <c r="D34" s="15">
         <v>2016</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="41">
+        <v>100</v>
+      </c>
+      <c r="F34" s="41">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="16" t="s">
+      <c r="K34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="N34" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,35 +2309,35 @@
       <c r="D35" s="15">
         <v>2016</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>116</v>
+      <c r="E35" s="41">
+        <v>100</v>
+      </c>
+      <c r="F35" s="41">
+        <v>31.5</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2515,35 +2350,35 @@
       <c r="D36" s="18">
         <v>2016</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>120</v>
+      <c r="E36" s="42">
+        <v>100</v>
+      </c>
+      <c r="F36" s="42">
+        <v>37.799999999999997</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2556,35 +2391,35 @@
       <c r="D37" s="18">
         <v>2015</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="42">
+        <v>100</v>
+      </c>
+      <c r="F37" s="42">
+        <v>44.7</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="H37" s="19" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,35 +2432,35 @@
       <c r="D38" s="15">
         <v>2015</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="41">
+        <v>100</v>
+      </c>
+      <c r="F38" s="41">
+        <v>51.8</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="L38" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,35 +2473,35 @@
       <c r="D39" s="15">
         <v>2015</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>124</v>
+      <c r="E39" s="41">
+        <v>100</v>
+      </c>
+      <c r="F39" s="41">
+        <v>76.099999999999994</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2679,35 +2514,35 @@
       <c r="D40" s="18">
         <v>2015</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>83</v>
+      <c r="E40" s="42">
+        <v>100</v>
+      </c>
+      <c r="F40" s="42">
+        <v>50.4</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,35 +2555,35 @@
       <c r="D41" s="15">
         <v>2015</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="41">
+        <v>100</v>
+      </c>
+      <c r="F41" s="41">
+        <v>41</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="K41" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,35 +2596,35 @@
       <c r="D42" s="15">
         <v>2015</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>90</v>
+      <c r="E42" s="41">
+        <v>100</v>
+      </c>
+      <c r="F42" s="41">
+        <v>31.6</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2802,35 +2637,35 @@
       <c r="D43" s="18">
         <v>2015</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="42">
+        <v>100</v>
+      </c>
+      <c r="F43" s="42">
+        <v>39.1</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2843,35 +2678,35 @@
       <c r="D44" s="18">
         <v>2014</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="42">
+        <v>100</v>
+      </c>
+      <c r="F44" s="42">
+        <v>42.8</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="K44" s="19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2884,35 +2719,35 @@
       <c r="D45" s="15">
         <v>2014</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>132</v>
+      <c r="E45" s="41">
+        <v>100</v>
+      </c>
+      <c r="F45" s="41">
+        <v>50.1</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2925,35 +2760,35 @@
       <c r="D46" s="15">
         <v>2014</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>135</v>
+      <c r="E46" s="41">
+        <v>100</v>
+      </c>
+      <c r="F46" s="41">
+        <v>45.7</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2966,35 +2801,35 @@
       <c r="D47" s="18">
         <v>2014</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="42">
+        <v>100</v>
+      </c>
+      <c r="F47" s="42">
+        <v>49.3</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="N47" s="19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,35 +2842,35 @@
       <c r="D48" s="15">
         <v>2014</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>141</v>
+      <c r="E48" s="41">
+        <v>100</v>
+      </c>
+      <c r="F48" s="41">
+        <v>37.700000000000003</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3048,35 +2883,35 @@
       <c r="D49" s="15">
         <v>2014</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>144</v>
+      <c r="E49" s="41">
+        <v>100</v>
+      </c>
+      <c r="F49" s="41">
+        <v>30.8</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,35 +2924,35 @@
       <c r="D50" s="18">
         <v>2014</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="42">
+        <v>100</v>
+      </c>
+      <c r="F50" s="42">
+        <v>36.5</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="K50" s="19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,35 +2965,35 @@
       <c r="D51" s="18">
         <v>2013</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="42">
+        <v>100</v>
+      </c>
+      <c r="F51" s="42">
+        <v>42.5</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J51" s="19" t="s">
+      <c r="K51" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="L51" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,35 +3006,35 @@
       <c r="D52" s="15">
         <v>2013</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="41">
+        <v>100</v>
+      </c>
+      <c r="F52" s="41">
+        <v>49.9</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="L52" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,35 +3047,35 @@
       <c r="D53" s="15">
         <v>2013</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>155</v>
+      <c r="E53" s="41">
+        <v>100</v>
+      </c>
+      <c r="F53" s="41">
+        <v>46.5</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J53" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>98</v>
-      </c>
       <c r="L53" s="16" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,35 +3088,35 @@
       <c r="D54" s="15">
         <v>2013</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="41">
+        <v>100</v>
+      </c>
+      <c r="F54" s="41">
+        <v>49.3</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M54" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="N54" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3294,35 +3129,35 @@
       <c r="D55" s="15">
         <v>2013</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="41">
+        <v>100</v>
+      </c>
+      <c r="F55" s="41">
+        <v>36.9</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="L55" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,35 +3170,35 @@
       <c r="D56" s="15">
         <v>2013</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>97</v>
+      <c r="E56" s="41">
+        <v>100</v>
+      </c>
+      <c r="F56" s="41">
+        <v>31.7</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3376,35 +3211,35 @@
       <c r="D57" s="18">
         <v>2013</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="42">
+        <v>100</v>
+      </c>
+      <c r="F57" s="42">
+        <v>36</v>
+      </c>
+      <c r="G57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G57" s="19" t="s">
+      <c r="H57" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="L57" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3417,35 +3252,35 @@
       <c r="D58" s="18">
         <v>2012</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="42">
+        <v>100</v>
+      </c>
+      <c r="F58" s="42">
+        <v>42.1</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="K58" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,35 +3293,35 @@
       <c r="D59" s="15">
         <v>2012</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>132</v>
+      <c r="E59" s="41">
+        <v>100</v>
+      </c>
+      <c r="F59" s="41">
+        <v>50.1</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3499,35 +3334,35 @@
       <c r="D60" s="15">
         <v>2012</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>170</v>
+      <c r="E60" s="41">
+        <v>100</v>
+      </c>
+      <c r="F60" s="41">
+        <v>45.2</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3540,35 +3375,35 @@
       <c r="D61" s="18">
         <v>2012</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>138</v>
+      <c r="E61" s="42">
+        <v>100</v>
+      </c>
+      <c r="F61" s="42">
+        <v>49.3</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,35 +3416,35 @@
       <c r="D62" s="15">
         <v>2012</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="41">
+        <v>100</v>
+      </c>
+      <c r="F62" s="41">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" s="16" t="s">
+      <c r="L62" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L62" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="N62" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3622,35 +3457,35 @@
       <c r="D63" s="15">
         <v>2012</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>175</v>
+      <c r="E63" s="41">
+        <v>100</v>
+      </c>
+      <c r="F63" s="41">
+        <v>29.9</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="N63" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,35 +3498,35 @@
       <c r="D64" s="18">
         <v>2012</v>
       </c>
-      <c r="E64" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>178</v>
+      <c r="E64" s="42">
+        <v>100</v>
+      </c>
+      <c r="F64" s="42">
+        <v>35.200000000000003</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,35 +3539,35 @@
       <c r="D65" s="18">
         <v>2011</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="42">
+        <v>100</v>
+      </c>
+      <c r="F65" s="43">
+        <v>42</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J65" s="19" t="s">
+      <c r="K65" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M65" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L65" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M65" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="N65" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3745,35 +3580,35 @@
       <c r="D66" s="15">
         <v>2011</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>182</v>
+      <c r="E66" s="41">
+        <v>100</v>
+      </c>
+      <c r="F66" s="41">
+        <v>50</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="M66" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,35 +3621,35 @@
       <c r="D67" s="15">
         <v>2011</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>184</v>
+      <c r="E67" s="41">
+        <v>100</v>
+      </c>
+      <c r="F67" s="41">
+        <v>43.9</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="M67" s="16" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,35 +3662,35 @@
       <c r="D68" s="18">
         <v>2011</v>
       </c>
-      <c r="E68" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>26</v>
+      <c r="E68" s="42">
+        <v>100</v>
+      </c>
+      <c r="F68" s="43">
+        <v>49</v>
+      </c>
+      <c r="G68" s="42">
+        <v>1</v>
+      </c>
+      <c r="H68" s="42">
+        <v>21.5</v>
+      </c>
+      <c r="I68" s="42">
+        <v>21.9</v>
+      </c>
+      <c r="J68" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="K68" s="42">
+        <v>1</v>
+      </c>
+      <c r="L68" s="42">
+        <v>3.8</v>
+      </c>
+      <c r="M68" s="42">
+        <v>0.9</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,35 +3703,35 @@
       <c r="D69" s="15">
         <v>2011</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M69" s="16" t="s">
-        <v>26</v>
+      <c r="E69" s="41">
+        <v>100</v>
+      </c>
+      <c r="F69" s="41">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G69" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="H69" s="41">
+        <v>25</v>
+      </c>
+      <c r="I69" s="41">
+        <v>32.6</v>
+      </c>
+      <c r="J69" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="K69" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="L69" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="M69" s="41">
+        <v>0.9</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,35 +3744,35 @@
       <c r="D70" s="15">
         <v>2011</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>108</v>
+      <c r="E70" s="41">
+        <v>100</v>
+      </c>
+      <c r="F70" s="41">
+        <v>30.7</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>194</v>
+        <v>58</v>
+      </c>
+      <c r="H70" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="I70" s="41">
+        <v>46.6</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>185</v>
+        <v>58</v>
+      </c>
+      <c r="K70" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="L70" s="41">
+        <v>7.6</v>
+      </c>
+      <c r="M70" s="41">
+        <v>-1.3</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,35 +3785,35 @@
       <c r="D71" s="18">
         <v>2011</v>
       </c>
-      <c r="E71" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>67</v>
+      <c r="E71" s="42">
+        <v>100</v>
+      </c>
+      <c r="F71" s="42">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G71" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="H71" s="42">
+        <v>22.6</v>
+      </c>
+      <c r="I71" s="42">
+        <v>34.9</v>
+      </c>
+      <c r="J71" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="K71" s="42">
+        <v>1</v>
+      </c>
+      <c r="L71" s="42">
+        <v>3.4</v>
+      </c>
+      <c r="M71" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="N71" s="42">
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -3986,7 +3821,7 @@
     </row>
     <row r="75" spans="2:14" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="33" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -4003,12 +3838,12 @@
     </row>
     <row r="76" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="34" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
@@ -4035,7 +3870,7 @@
     </row>
     <row r="79" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="27"/>
@@ -4057,7 +3892,7 @@
     </row>
     <row r="81" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="25" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
@@ -4069,7 +3904,7 @@
     </row>
     <row r="82" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="25" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
@@ -4081,7 +3916,7 @@
     </row>
     <row r="83" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
@@ -4093,7 +3928,7 @@
     </row>
     <row r="84" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
